--- a/JinTeamForAdmin/JinTeamForAdmin/JinTeamForAdmin/Resources/세금계산서_양식.xlsx
+++ b/JinTeamForAdmin/JinTeamForAdmin/JinTeamForAdmin/Resources/세금계산서_양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GDC22\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GDC22\Desktop\JinTeam\코딩\JinTeamForAdmin\JinTeamForAdmin\JinTeamForAdmin\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C2EAEB7-D3EB-4A9F-8CD4-BBFC7D4C22A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213CDDDD-0A4B-4E10-8DA9-D7AF7E9E355C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="7155" xr2:uid="{1C987FB5-816E-486D-B755-8A87D764C3AF}"/>
+    <workbookView xWindow="1380" yWindow="1905" windowWidth="25455" windowHeight="12735" xr2:uid="{1C987FB5-816E-486D-B755-8A87D764C3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="38">
   <si>
     <t>세금계산서(예시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,13 +206,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -379,59 +385,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -439,6 +403,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +787,7 @@
   <dimension ref="A3:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,363 +801,322 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="4" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="8" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="A5:A8"/>
@@ -1138,6 +1127,47 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
